--- a/team_specific_matrix/CarolinaU_A.xlsx
+++ b/team_specific_matrix/CarolinaU_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3333333333333333</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="S6">
-        <v>0.6666666666666666</v>
+        <v>0.5517241379310345</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09090909090909091</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1818181818181818</v>
+        <v>0.1</v>
       </c>
       <c r="R7">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
       <c r="S7">
-        <v>0.6363636363636364</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08695652173913043</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1304347826086956</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1304347826086956</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.04347826086956522</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="R8">
-        <v>0.1739130434782609</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="S8">
-        <v>0.4347826086956522</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08333333333333333</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1666666666666667</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.08333333333333333</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="R9">
-        <v>0.08333333333333333</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="S9">
-        <v>0.5833333333333334</v>
+        <v>0.5757575757575758</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.05714285714285714</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02857142857142857</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05714285714285714</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1142857142857143</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1428571428571428</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="R10">
-        <v>0.1428571428571428</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="S10">
-        <v>0.4571428571428571</v>
+        <v>0.5229357798165137</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0.25</v>
+        <v>0.225</v>
       </c>
       <c r="L11">
-        <v>0.4166666666666667</v>
+        <v>0.425</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J15">
-        <v>0.6666666666666666</v>
+        <v>0.35</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="I16">
         <v>0.25</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1111111111111111</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="I17">
-        <v>0.2222222222222222</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J17">
-        <v>0.1111111111111111</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K17">
-        <v>0.1111111111111111</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3333333333333333</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1111111111111111</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3636363636363636</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="I18">
-        <v>0.09090909090909091</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="J18">
-        <v>0.1818181818181818</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K18">
-        <v>0.2727272727272727</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09090909090909091</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.015625</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.265625</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="I19">
-        <v>0.125</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="J19">
-        <v>0.234375</v>
+        <v>0.2602040816326531</v>
       </c>
       <c r="K19">
-        <v>0.078125</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.046875</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.046875</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1875</v>
+        <v>0.1224489795918367</v>
       </c>
     </row>
   </sheetData>
